--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_22_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_22_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,1211 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_0</t>
+          <t>model_22_9_17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9925724139249696</v>
+        <v>0.986941226804803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7628759441188332</v>
+        <v>0.7696271713780952</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9767833607477472</v>
+        <v>0.9884038455611613</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9910389804666297</v>
+        <v>0.8607023395614062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.982862093073104</v>
+        <v>0.9704577931236525</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0496683022846169</v>
+        <v>0.08732407648640407</v>
       </c>
       <c r="H2" t="n">
-        <v>1.585649653533243</v>
+        <v>1.540504165764015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1561814914511014</v>
+        <v>0.1527869772888463</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02854511168474082</v>
+        <v>0.301196593053584</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09236326240735082</v>
+        <v>0.2269917851712151</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4709176893083269</v>
+        <v>0.2541481247298812</v>
       </c>
       <c r="M2" t="n">
-        <v>0.222863864914474</v>
+        <v>0.2955064745253546</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001301182962049</v>
+        <v>1.008470555586074</v>
       </c>
       <c r="O2" t="n">
-        <v>0.232351641035683</v>
+        <v>0.3080867969286311</v>
       </c>
       <c r="P2" t="n">
-        <v>328.004776660684</v>
+        <v>126.8762581278749</v>
       </c>
       <c r="Q2" t="n">
-        <v>524.2437844644643</v>
+        <v>201.2276834448351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_1</t>
+          <t>model_22_9_18</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9925327545854689</v>
+        <v>0.9864827037005954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7619922669769605</v>
+        <v>0.7696233106086501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9738624829207967</v>
+        <v>0.9879585200013881</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9892078964854669</v>
+        <v>0.8504275831280298</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9804980087908476</v>
+        <v>0.9686302703700338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04993350447047344</v>
+        <v>0.09039022259554455</v>
       </c>
       <c r="H3" t="n">
-        <v>1.591558806649905</v>
+        <v>1.540529982747072</v>
       </c>
       <c r="I3" t="n">
-        <v>0.175830634051071</v>
+        <v>0.1586544350349534</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03437798556162359</v>
+        <v>0.3234132018784865</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1051042895261562</v>
+        <v>0.2410338184567199</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5557593960138909</v>
+        <v>0.25281411236665</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2234580597572472</v>
+        <v>0.3006496675460403</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001308130583568</v>
+        <v>1.008767975977992</v>
       </c>
       <c r="O3" t="n">
-        <v>0.232971131983066</v>
+        <v>0.3134489463240846</v>
       </c>
       <c r="P3" t="n">
-        <v>327.9941261385209</v>
+        <v>126.8072383491247</v>
       </c>
       <c r="Q3" t="n">
-        <v>524.2331339423012</v>
+        <v>201.1586636660849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_2</t>
+          <t>model_22_9_16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9923353256455627</v>
+        <v>0.9873867658227908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7610287508002066</v>
+        <v>0.7695704943155479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9708087605446967</v>
+        <v>0.9888573112835575</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9870031845345147</v>
+        <v>0.8711196323161435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.977940596500711</v>
+        <v>0.9723123506688738</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05125371270070207</v>
+        <v>0.08434475502160092</v>
       </c>
       <c r="H4" t="n">
-        <v>1.598001843760443</v>
+        <v>1.540883165542243</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1963734400099755</v>
+        <v>0.1468122675353295</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04140104232857417</v>
+        <v>0.2786717848357759</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1188872411692748</v>
+        <v>0.2127420261855527</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6311064648656753</v>
+        <v>0.2555258091095932</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2263928282890208</v>
+        <v>0.2904216848336242</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00134271667523</v>
+        <v>1.008181557304136</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2360308396870456</v>
+        <v>0.3027855372127579</v>
       </c>
       <c r="P4" t="n">
-        <v>327.9419344412939</v>
+        <v>126.945685306109</v>
       </c>
       <c r="Q4" t="n">
-        <v>524.1809422450742</v>
+        <v>201.2971106230692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_3</t>
+          <t>model_22_9_19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9920293482053004</v>
+        <v>0.9860157282422978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7600262999088083</v>
+        <v>0.7695671131907866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9677055969314433</v>
+        <v>0.9875220705041017</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9846272780313309</v>
+        <v>0.8403351645050279</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9753017301371052</v>
+        <v>0.9668360136185367</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05329978525263297</v>
+        <v>0.09351288963540542</v>
       </c>
       <c r="H5" t="n">
-        <v>1.604705237487085</v>
+        <v>1.54090577513909</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2172488438989193</v>
+        <v>0.1644049448079425</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0489694352143755</v>
+        <v>0.3452355504760695</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1331091824739708</v>
+        <v>0.254820247642006</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6981859284385652</v>
+        <v>0.2515238645616126</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2308674625247849</v>
+        <v>0.3057987731097125</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001396318562575</v>
+        <v>1.009070878977969</v>
       </c>
       <c r="O5" t="n">
-        <v>0.240695968365996</v>
+        <v>0.3188172599717203</v>
       </c>
       <c r="P5" t="n">
-        <v>327.8636459536995</v>
+        <v>126.7393119902515</v>
       </c>
       <c r="Q5" t="n">
-        <v>524.1026537574797</v>
+        <v>201.0907373072118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_4</t>
+          <t>model_22_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9916518330133635</v>
+        <v>0.9855441284070189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7590150905838376</v>
+        <v>0.769465829144685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9646163391050354</v>
+        <v>0.9870950373012781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9822143412268655</v>
+        <v>0.8304572774351556</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9726606147956151</v>
+        <v>0.9650800158705439</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05582423107941334</v>
+        <v>0.09666647990543292</v>
       </c>
       <c r="H6" t="n">
-        <v>1.611467198899355</v>
+        <v>1.541583062021742</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2380307016675261</v>
+        <v>0.1700313886954828</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05665578723215565</v>
+        <v>0.36659402787365</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1473432444498409</v>
+        <v>0.2683127082845664</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7580129171942679</v>
+        <v>0.2502772164466646</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2362715198228795</v>
+        <v>0.3109123347592259</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001462452610798</v>
+        <v>1.009376781573825</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2463300875712112</v>
+        <v>0.3241485165271853</v>
       </c>
       <c r="P6" t="n">
-        <v>327.7710945102371</v>
+        <v>126.6729771533687</v>
       </c>
       <c r="Q6" t="n">
-        <v>524.0101023140174</v>
+        <v>201.024402470329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_5</t>
+          <t>model_22_9_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9912302583971095</v>
+        <v>0.9878141755620051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.758016699342707</v>
+        <v>0.7694442363205134</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9615874861203911</v>
+        <v>0.9893179376012002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9798508146844874</v>
+        <v>0.8816337235535611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9700717928049583</v>
+        <v>0.9741866676055405</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05864330247947547</v>
+        <v>0.08148666412743409</v>
       </c>
       <c r="H7" t="n">
-        <v>1.618143445725964</v>
+        <v>1.541727453336403</v>
       </c>
       <c r="I7" t="n">
-        <v>0.258406207846008</v>
+        <v>0.1407432122201811</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06418474405127476</v>
+        <v>0.255937673941209</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1612954759486414</v>
+        <v>0.1983404430806951</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8114837057658646</v>
+        <v>0.2569468946131077</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2421637926682589</v>
+        <v>0.2854586907547817</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001536305098317</v>
+        <v>1.007904318554375</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2524732066703047</v>
+        <v>0.2976112582011651</v>
       </c>
       <c r="P7" t="n">
-        <v>327.6725638102535</v>
+        <v>127.0146318049249</v>
       </c>
       <c r="Q7" t="n">
-        <v>523.9115716140337</v>
+        <v>201.3660571218851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_6</t>
+          <t>model_22_9_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9907852309213822</v>
+        <v>0.9850713545148785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7570465732286262</v>
+        <v>0.7693260703623033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9586538661378683</v>
+        <v>0.9866781968605256</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9775906027570049</v>
+        <v>0.8208216719231765</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9675729474686962</v>
+        <v>0.9633668474165471</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06161920325882789</v>
+        <v>0.09982792109909959</v>
       </c>
       <c r="H8" t="n">
-        <v>1.624630683517842</v>
+        <v>1.542517629643058</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2781410686604011</v>
+        <v>0.1755235362251007</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0713845946554289</v>
+        <v>0.3874286315782531</v>
       </c>
       <c r="K8" t="n">
-        <v>0.174762786075431</v>
+        <v>0.2814760839016769</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8593359534387589</v>
+        <v>0.2490787544894543</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2482321559726457</v>
+        <v>0.3159555682356296</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001614266115962</v>
+        <v>1.009683445720079</v>
       </c>
       <c r="O8" t="n">
-        <v>0.258799912763803</v>
+        <v>0.329406450893612</v>
       </c>
       <c r="P8" t="n">
-        <v>327.5735634316183</v>
+        <v>126.6086147285223</v>
       </c>
       <c r="Q8" t="n">
-        <v>523.8125712353985</v>
+        <v>200.9600400454825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_7</t>
+          <t>model_22_9_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9903317460113559</v>
+        <v>0.9882176672253312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7561152644017107</v>
+        <v>0.7692382379304608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9558392916880627</v>
+        <v>0.9897847791128543</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9754641292002679</v>
+        <v>0.8921901658159277</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9651879104227221</v>
+        <v>0.9760722723414419</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06465165894027937</v>
+        <v>0.07878851351686399</v>
       </c>
       <c r="H9" t="n">
-        <v>1.630858349931709</v>
+        <v>1.543104965519221</v>
       </c>
       <c r="I9" t="n">
-        <v>0.297075093977099</v>
+        <v>0.1345922676277479</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07815842490383561</v>
+        <v>0.2331119894740006</v>
       </c>
       <c r="K9" t="n">
-        <v>0.18761673629632</v>
+        <v>0.1838521285508743</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9022224378798515</v>
+        <v>0.258409332204452</v>
       </c>
       <c r="M9" t="n">
-        <v>0.254266904925276</v>
+        <v>0.2806929167557742</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001693708727938</v>
+        <v>1.007642594232218</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2650915734729993</v>
+        <v>0.2926425953365076</v>
       </c>
       <c r="P9" t="n">
-        <v>327.4774830275287</v>
+        <v>127.0819761205918</v>
       </c>
       <c r="Q9" t="n">
-        <v>523.716490831309</v>
+        <v>201.4334014375521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_8</t>
+          <t>model_22_9_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.989880967883773</v>
+        <v>0.9885906562693774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7552297820699903</v>
+        <v>0.7689412957139078</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9531611392320487</v>
+        <v>0.990256740421441</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9734874086179401</v>
+        <v>0.9027271670753459</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9629322804356442</v>
+        <v>0.9779595312638394</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06766601435506839</v>
+        <v>0.07629433406187064</v>
       </c>
       <c r="H10" t="n">
-        <v>1.636779574361195</v>
+        <v>1.545090619488603</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3150913899779559</v>
+        <v>0.1283738663364784</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08445522066261575</v>
+        <v>0.2103283413470663</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1997732584013278</v>
+        <v>0.1693511038417723</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9406899377801093</v>
+        <v>0.2599225339401299</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2601269197047249</v>
+        <v>0.2762142901116281</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001772677159047</v>
+        <v>1.007400655392836</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2712010612135122</v>
+        <v>0.287973304284085</v>
       </c>
       <c r="P10" t="n">
-        <v>327.3863424574556</v>
+        <v>127.1463132042802</v>
       </c>
       <c r="Q10" t="n">
-        <v>523.6253502612359</v>
+        <v>201.4977385212405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_9</t>
+          <t>model_22_9_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9894406843219692</v>
+        <v>0.9889259839905784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7543942215880149</v>
+        <v>0.7685410464935535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9506292299066027</v>
+        <v>0.9907328332009567</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9716652111212611</v>
+        <v>0.9131767800403955</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9608135683584789</v>
+        <v>0.9798380364856142</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07061019256016993</v>
+        <v>0.07405199604615741</v>
       </c>
       <c r="H11" t="n">
-        <v>1.642366971151566</v>
+        <v>1.547767087868091</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3321238885394662</v>
+        <v>0.1221010301928313</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09025978685741715</v>
+        <v>0.1877336487018948</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2111918733105805</v>
+        <v>0.1549173394473631</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9752275634826592</v>
+        <v>0.2614727406069052</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2657257845226352</v>
+        <v>0.2721249640260103</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001849807126078</v>
+        <v>1.007183145519625</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2770382812979689</v>
+        <v>0.2837098871209304</v>
       </c>
       <c r="P11" t="n">
-        <v>327.3011615487254</v>
+        <v>127.205975566496</v>
       </c>
       <c r="Q11" t="n">
-        <v>523.5401693525057</v>
+        <v>201.5574008834562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_10</t>
+          <t>model_22_9_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9890164386440308</v>
+        <v>0.9892154674020573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.753610823290118</v>
+        <v>0.7680239076247506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.948249594506695</v>
+        <v>0.9912116185826481</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9699962542854204</v>
+        <v>0.923461324737929</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9588352006999914</v>
+        <v>0.9816956243962942</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07344712536201582</v>
+        <v>0.07211621914064877</v>
       </c>
       <c r="H12" t="n">
-        <v>1.64760555917682</v>
+        <v>1.551225197864981</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3481320196832259</v>
+        <v>0.1157927172409363</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0955762086215565</v>
+        <v>0.1654958751868836</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2218541141523912</v>
+        <v>0.1406442962139099</v>
       </c>
       <c r="L12" t="n">
-        <v>1.00626002436996</v>
+        <v>0.263066764161179</v>
       </c>
       <c r="M12" t="n">
-        <v>0.271011301170294</v>
+        <v>0.2685446315617737</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001924127536812</v>
+        <v>1.006995372495963</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2825488133318464</v>
+        <v>0.2799771324913813</v>
       </c>
       <c r="P12" t="n">
-        <v>327.2223790289461</v>
+        <v>127.2589526131648</v>
       </c>
       <c r="Q12" t="n">
-        <v>523.4613868327264</v>
+        <v>201.6103779301251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_11</t>
+          <t>model_22_9_10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9886118918935568</v>
+        <v>0.9894503206691758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7528801785967094</v>
+        <v>0.7673750788067155</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9460238130801685</v>
+        <v>0.9916920739466292</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9684749234659317</v>
+        <v>0.9334952223183536</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9569964757484901</v>
+        <v>0.9835193768602061</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07615233134520172</v>
+        <v>0.07054575426202833</v>
       </c>
       <c r="H13" t="n">
-        <v>1.652491383605953</v>
+        <v>1.555563919158764</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3631051542123906</v>
+        <v>0.1094624011717544</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1004223712696822</v>
+        <v>0.1438000638088831</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2317637627410364</v>
+        <v>0.1266312324903188</v>
       </c>
       <c r="L13" t="n">
-        <v>1.034159376357167</v>
+        <v>0.2647103056826303</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2759571186710024</v>
+        <v>0.2656045072321408</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001994997040545</v>
+        <v>1.006843035241616</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2877051845228136</v>
+        <v>0.2769118409821396</v>
       </c>
       <c r="P13" t="n">
-        <v>327.1500391698791</v>
+        <v>127.3029875660933</v>
       </c>
       <c r="Q13" t="n">
-        <v>523.3890469736593</v>
+        <v>201.6544128830535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_12</t>
+          <t>model_22_9_9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9882293497938968</v>
+        <v>0.9896206623721568</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7522016563622742</v>
+        <v>0.7665785497894141</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9439508565880314</v>
+        <v>0.9921729559639033</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9670930145912284</v>
+        <v>0.9431837771217946</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9552943287940839</v>
+        <v>0.9852949037299974</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07871039212707284</v>
+        <v>0.06940667850984279</v>
       </c>
       <c r="H14" t="n">
-        <v>1.657028664911929</v>
+        <v>1.560890312365138</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3770502146122846</v>
+        <v>0.1031264636642485</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1048244086739799</v>
+        <v>0.1228509704126177</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2409373360645653</v>
+        <v>0.1129887170384331</v>
       </c>
       <c r="L14" t="n">
-        <v>1.059249914821176</v>
+        <v>0.2664024313092067</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2805537241368805</v>
+        <v>0.2634514727797945</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002062011714938</v>
+        <v>1.006732543326168</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2924974769996592</v>
+        <v>0.2746671473957611</v>
       </c>
       <c r="P14" t="n">
-        <v>327.0839601698366</v>
+        <v>127.3355443679382</v>
       </c>
       <c r="Q14" t="n">
-        <v>523.3229679736169</v>
+        <v>201.6869696848984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_13</t>
+          <t>model_22_9_8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9878700222453699</v>
+        <v>0.9897157688221608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7515739495462826</v>
+        <v>0.7656170538121273</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9420270501901946</v>
+        <v>0.9926532805389729</v>
       </c>
       <c r="E15" t="n">
-        <v>0.965841302193479</v>
+        <v>0.9524215592139136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9537237466812741</v>
+        <v>0.9870065267564998</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08111321709862365</v>
+        <v>0.06877070124074086</v>
       </c>
       <c r="H15" t="n">
-        <v>1.661226143280789</v>
+        <v>1.567319840392536</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3899919220322407</v>
+        <v>0.09679787082517351</v>
       </c>
       <c r="J15" t="n">
-        <v>0.108811708339813</v>
+        <v>0.1028765610452459</v>
       </c>
       <c r="K15" t="n">
-        <v>0.24940185208957</v>
+        <v>0.09983721593520969</v>
       </c>
       <c r="L15" t="n">
-        <v>1.081820474011596</v>
+        <v>0.2681441005241065</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2848038221278353</v>
+        <v>0.262241684788557</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002124959606651</v>
+        <v>1.006670852655896</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2969285104610046</v>
+        <v>0.2734058562251303</v>
       </c>
       <c r="P15" t="n">
-        <v>327.0238187165668</v>
+        <v>127.3539549576069</v>
       </c>
       <c r="Q15" t="n">
-        <v>523.2628265203471</v>
+        <v>201.7053802745671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_14</t>
+          <t>model_22_9_7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9875345046966696</v>
+        <v>0.9897234970423253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7509951126246408</v>
+        <v>0.7644722381887241</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9402481867599214</v>
+        <v>0.9931319063630341</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9647097258877776</v>
+        <v>0.9610895938728685</v>
       </c>
       <c r="F16" t="n">
-        <v>0.952279144401126</v>
+        <v>0.9886365270813048</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08335682449169834</v>
+        <v>0.06871902259691574</v>
       </c>
       <c r="H16" t="n">
-        <v>1.665096828441107</v>
+        <v>1.574975227737624</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4019585783863008</v>
+        <v>0.09049166015021405</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1124163173807559</v>
+        <v>0.08413408899275546</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2571874107371181</v>
+        <v>0.08731287457148476</v>
       </c>
       <c r="L16" t="n">
-        <v>1.102131448566102</v>
+        <v>0.2699361681251336</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2887158196076176</v>
+        <v>0.2621431337970074</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002183736403503</v>
+        <v>1.00666583975633</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3010070497724524</v>
+        <v>0.2733031097138418</v>
       </c>
       <c r="P16" t="n">
-        <v>326.9692495912245</v>
+        <v>127.3554584487716</v>
       </c>
       <c r="Q16" t="n">
-        <v>523.2082573950048</v>
+        <v>201.7068837657319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_15</t>
+          <t>model_22_9_6</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9872225748622435</v>
+        <v>0.9896305780810826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7504628887878975</v>
+        <v>0.763124727699427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9386074031687983</v>
+        <v>0.9936077264867177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9636884427823745</v>
+        <v>0.9690544519819362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.950953288441816</v>
+        <v>0.9901651815019221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08544270073081053</v>
+        <v>0.06934037211859839</v>
       </c>
       <c r="H17" t="n">
-        <v>1.668655811688075</v>
+        <v>1.58398603658427</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4129963528732017</v>
+        <v>0.08422241642685256</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1156695900911776</v>
+        <v>0.06691206157999853</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2643329963915667</v>
+        <v>0.07556723900342553</v>
       </c>
       <c r="L17" t="n">
-        <v>1.120419102956502</v>
+        <v>0.2718005469364631</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2923058342401166</v>
+        <v>0.263325600955544</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00223838104603</v>
+        <v>1.006726111514973</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3047498987602117</v>
+        <v>0.2745359169473617</v>
       </c>
       <c r="P17" t="n">
-        <v>326.9198185891855</v>
+        <v>127.337455944321</v>
       </c>
       <c r="Q17" t="n">
-        <v>523.1588263929658</v>
+        <v>201.6888812612813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_16</t>
+          <t>model_22_9_5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9869338320171192</v>
+        <v>0.9894220512451305</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7499746039066604</v>
+        <v>0.7615542710174752</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9370982244020327</v>
+        <v>0.9940797108866677</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9627681334159311</v>
+        <v>0.9761658917873978</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9497394249063955</v>
+        <v>0.9915704671515877</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08737352546569536</v>
+        <v>0.07073479203078775</v>
       </c>
       <c r="H18" t="n">
-        <v>1.671920974937253</v>
+        <v>1.594487687647769</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4231488037985397</v>
+        <v>0.07800371089165072</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1186012133904921</v>
+        <v>0.05153533928353959</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2708750085945159</v>
+        <v>0.06476952508759516</v>
       </c>
       <c r="L18" t="n">
-        <v>1.136871391203246</v>
+        <v>0.2741138838812494</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2955901308665351</v>
+        <v>0.2659601324085769</v>
       </c>
       <c r="N18" t="n">
-        <v>1.002288963734227</v>
+        <v>1.006861372165321</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3081740146934481</v>
+        <v>0.2772826058585822</v>
       </c>
       <c r="P18" t="n">
-        <v>326.8751259089993</v>
+        <v>127.2976354383862</v>
       </c>
       <c r="Q18" t="n">
-        <v>523.1141337127796</v>
+        <v>201.6490607553464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_17</t>
+          <t>model_22_9_4</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9866673717202193</v>
+        <v>0.989081217211936</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7495276671869987</v>
+        <v>0.7597403372309723</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9357130457944438</v>
+        <v>0.9945462632355129</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9619389342428013</v>
+        <v>0.982254894464564</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9486298719332396</v>
+        <v>0.9928272335990527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08915534669800153</v>
+        <v>0.07301395078015599</v>
       </c>
       <c r="H19" t="n">
-        <v>1.674909642839584</v>
+        <v>1.606617471230511</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4324670887797914</v>
+        <v>0.07185657620980226</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1212426073655571</v>
+        <v>0.03836938333221842</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2768548480726742</v>
+        <v>0.05511297977101035</v>
       </c>
       <c r="L19" t="n">
-        <v>1.151688072559176</v>
+        <v>0.276730856972197</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2985889259466961</v>
+        <v>0.2702109375657396</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002335642910327</v>
+        <v>1.007082453700366</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3113004746885331</v>
+        <v>0.281714376591665</v>
       </c>
       <c r="P19" t="n">
-        <v>326.834749924586</v>
+        <v>127.2342094990296</v>
       </c>
       <c r="Q19" t="n">
-        <v>523.0737577283663</v>
+        <v>201.5856348159899</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_18</t>
+          <t>model_22_9_3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9864222583079008</v>
+        <v>0.9885892821125764</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7491193498480244</v>
+        <v>0.7576620594672125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9344444815407612</v>
+        <v>0.9950052901708172</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9611926322179604</v>
+        <v>0.9871316178941335</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9476175974066113</v>
+        <v>0.9939069743250761</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09079442121481947</v>
+        <v>0.0763035230547266</v>
       </c>
       <c r="H20" t="n">
-        <v>1.677640062765434</v>
+        <v>1.620514924206362</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4410008931340317</v>
+        <v>0.06580859381104895</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1236199344732934</v>
+        <v>0.02782468015754869</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2823104138036626</v>
+        <v>0.04681663698429882</v>
       </c>
       <c r="L20" t="n">
-        <v>1.165029356642608</v>
+        <v>0.2794472109808367</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3013211263997589</v>
+        <v>0.2762309234222819</v>
       </c>
       <c r="N20" t="n">
-        <v>1.002378582486207</v>
+        <v>1.007401546737788</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3141489905713174</v>
+        <v>0.287990645709209</v>
       </c>
       <c r="P20" t="n">
-        <v>326.7983148712557</v>
+        <v>127.1460723360783</v>
       </c>
       <c r="Q20" t="n">
-        <v>523.037322675036</v>
+        <v>201.4974976530385</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_19</t>
+          <t>model_22_9_2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9861973296535383</v>
+        <v>0.9879252968778035</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7487468488244322</v>
+        <v>0.7552988347116976</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9332846701392699</v>
+        <v>0.9954534259778149</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9605212371531479</v>
+        <v>0.9905882695588363</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9466953335646554</v>
+        <v>0.994777566208612</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09229852016224242</v>
+        <v>0.08074359537702344</v>
       </c>
       <c r="H21" t="n">
-        <v>1.680130978825405</v>
+        <v>1.63631781902814</v>
       </c>
       <c r="I21" t="n">
-        <v>0.448803102253051</v>
+        <v>0.05990410920563945</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1257586472657705</v>
+        <v>0.02035052946827388</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2872808747594108</v>
+        <v>0.04012731933695667</v>
       </c>
       <c r="L21" t="n">
-        <v>1.177037776818084</v>
+        <v>0.2822891145519635</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3038067151368489</v>
+        <v>0.2841541753644022</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002417986046096</v>
+        <v>1.007832239863046</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3167403959668234</v>
+        <v>0.296251206889898</v>
       </c>
       <c r="P21" t="n">
-        <v>326.7654543410273</v>
+        <v>127.0329532684827</v>
       </c>
       <c r="Q21" t="n">
-        <v>523.0044621448076</v>
+        <v>201.3843785854429</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_20</t>
+          <t>model_22_9_1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9859913562830787</v>
+        <v>0.9870661093154158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7484075529134999</v>
+        <v>0.7526305091187877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9322259296113147</v>
+        <v>0.9958856382190491</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9599172404398388</v>
+        <v>0.9924025925079907</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9458560552085714</v>
+        <v>0.995403421892229</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0936758650389263</v>
+        <v>0.08648898656290456</v>
       </c>
       <c r="H22" t="n">
-        <v>1.682399852144123</v>
+        <v>1.654160924554438</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4559253938525861</v>
+        <v>0.05420942807374364</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1276826642344221</v>
+        <v>0.01642750671782996</v>
       </c>
       <c r="K22" t="n">
-        <v>0.291804092639311</v>
+        <v>0.0353184673957868</v>
       </c>
       <c r="L22" t="n">
-        <v>1.187854213700159</v>
+        <v>0.2916177152514571</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3060651320208271</v>
+        <v>0.2940900993962642</v>
       </c>
       <c r="N22" t="n">
-        <v>1.002454068972307</v>
+        <v>1.008389550714325</v>
       </c>
       <c r="O22" t="n">
-        <v>0.31909495833312</v>
+        <v>0.3066101237779945</v>
       </c>
       <c r="P22" t="n">
-        <v>326.7358293997511</v>
+        <v>126.8954763922455</v>
       </c>
       <c r="Q22" t="n">
-        <v>522.9748372035314</v>
+        <v>201.2469017092058</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_21</t>
+          <t>model_22_9_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9858031335206701</v>
+        <v>0.9859862393079004</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7480988848114732</v>
+        <v>0.7496372940140796</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9312608043077109</v>
+        <v>0.996294456041911</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9593746728793153</v>
+        <v>0.9923431655264104</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9450933805369123</v>
+        <v>0.9957455739050974</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09493451151783891</v>
+        <v>0.09371008227550461</v>
       </c>
       <c r="H23" t="n">
-        <v>1.684463917163661</v>
+        <v>1.674176567742109</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4624179230992308</v>
+        <v>0.04882298382221763</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1294110001178543</v>
+        <v>0.01655600280549601</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2959144616085425</v>
+        <v>0.03268949331385682</v>
       </c>
       <c r="L23" t="n">
-        <v>1.197594480623789</v>
+        <v>0.3020684634113048</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3081144454871256</v>
+        <v>0.3061210255364774</v>
       </c>
       <c r="N23" t="n">
-        <v>1.002487042302948</v>
+        <v>1.009090006935416</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3212315153163425</v>
+        <v>0.319153231351447</v>
       </c>
       <c r="P23" t="n">
-        <v>326.7091359550761</v>
+        <v>126.7350989877336</v>
       </c>
       <c r="Q23" t="n">
-        <v>522.9481437588564</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9856314233089978</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7478184429034935</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9303824674967107</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9588865649490934</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9444009538323563</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.09608273849394421</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.686339233493638</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.4683266143463975</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.1309658561619134</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2996462352541555</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.206361648223984</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.30997215761088</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.002517122923971</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.3231683140911993</v>
-      </c>
-      <c r="P24" t="n">
-        <v>326.6850911987797</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>522.92409900256</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9854749611036475</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7475638931181567</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9295836893235756</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9584475868570526</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.943772706714218</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.09712900198156323</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.688041409080279</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.4737001038107139</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.1323642102909048</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.3030321185873299</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.214258615687393</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.3116552614373183</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.002544532361405</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.3249230711320344</v>
-      </c>
-      <c r="P25" t="n">
-        <v>326.6634305333997</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>522.9024383371799</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_22_9_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9853326753217742</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7473330141765249</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9288583509149958</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9580533687265332</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9432035122776777</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.09808046766011609</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.689585297626071</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.4785795539855612</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.1336199826415752</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.3060997426167536</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.221365158084434</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.3131780127341575</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.002569458337791</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.3265106491041097</v>
-      </c>
-      <c r="P26" t="n">
-        <v>326.6439340773119</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>522.8829418810922</v>
+        <v>201.0865243046939</v>
       </c>
     </row>
   </sheetData>
